--- a/Nevasa/InformeCompleto/20240909/20240909_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20240909/20240909_informe_completo_results.xlsx
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>951400778</v>
+        <v>1000000000</v>
       </c>
       <c r="F7" t="n">
         <v>951400778</v>
